--- a/ML_Regression/knn.xlsx
+++ b/ML_Regression/knn.xlsx
@@ -1,37 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EMIT_DAA\ML\ml-linear-regression-algo-performance\ML_Regression\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066CFDD4-9167-4E29-98E9-3081D1AB0E8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+  <si>
+    <t>Regularizer</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F-measure</t>
+  </si>
+  <si>
+    <t>Lasso</t>
+  </si>
+  <si>
+    <t>Ridge</t>
+  </si>
+  <si>
+    <t>PLS</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +87,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,137 +411,433 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Regularizer</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>F-measure</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Lasso</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5128205128205128</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4871794871794872</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="E2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0.51282051282051277</v>
+      </c>
+      <c r="C2">
+        <v>0.48717948717948723</v>
+      </c>
+      <c r="D2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E2">
         <v>0.6470588235294118</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.5365853658536585</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ridge</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="F2">
+        <v>0.53658536585365846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="C3">
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="D3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.5945945945945946</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PLS</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6511627906976744</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MI</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3333333333333334</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.6829268292682927</v>
+      <c r="F3">
+        <v>0.59459459459459463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.58974358974358976</v>
+      </c>
+      <c r="C4">
+        <v>0.41025641025641019</v>
+      </c>
+      <c r="D4">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="E4">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="F4">
+        <v>0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="C5">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="D5">
+        <v>0.60869565217391308</v>
+      </c>
+      <c r="E5">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="F5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="C6">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="D6">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E6">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="F6">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="C7">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="D7">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E7">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="F7">
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.58974358974358976</v>
+      </c>
+      <c r="C8">
+        <v>0.41025641025641019</v>
+      </c>
+      <c r="D8">
+        <v>0.65</v>
+      </c>
+      <c r="E8">
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="F8">
+        <v>0.61904761904761907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="C9">
+        <v>0.28205128205128199</v>
+      </c>
+      <c r="D9">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E9">
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="F9">
+        <v>0.70270270270270285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="C10">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="D10">
+        <v>0.9</v>
+      </c>
+      <c r="E10">
+        <v>0.72</v>
+      </c>
+      <c r="F10">
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="C11">
+        <v>0.2051282051282052</v>
+      </c>
+      <c r="D11">
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="E11">
+        <v>0.76</v>
+      </c>
+      <c r="F11">
+        <v>0.82608695652173914</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0.58974358974358976</v>
+      </c>
+      <c r="C12">
+        <v>0.41025641025641019</v>
+      </c>
+      <c r="D12">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="E12">
+        <v>0.44</v>
+      </c>
+      <c r="F12">
+        <v>0.57894736842105254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0.74358974358974361</v>
+      </c>
+      <c r="C13">
+        <v>0.25641025641025639</v>
+      </c>
+      <c r="D13">
+        <v>0.8</v>
+      </c>
+      <c r="E13">
+        <v>0.8</v>
+      </c>
+      <c r="F13">
+        <v>0.80000000000000016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="C14">
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="D14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E14">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F14">
+        <v>0.65116279069767447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C15">
+        <v>0.33333333333333343</v>
+      </c>
+      <c r="D15">
+        <v>0.60869565217391308</v>
+      </c>
+      <c r="E15">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F15">
+        <v>0.68292682926829273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>0.48717948717948723</v>
+      </c>
+      <c r="C16">
+        <v>0.51282051282051277</v>
+      </c>
+      <c r="D16">
+        <v>0.45</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16">
+        <v>0.47368421052631582</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="C17">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="D17">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="E17">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F17">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>0.65789473684210531</v>
+      </c>
+      <c r="C18">
+        <v>0.34210526315789469</v>
+      </c>
+      <c r="D18">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E18">
+        <v>0.75</v>
+      </c>
+      <c r="F18">
+        <v>0.64864864864864857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="C19">
+        <v>0.36842105263157898</v>
+      </c>
+      <c r="D19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E19">
+        <v>0.6875</v>
+      </c>
+      <c r="F19">
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="C20">
+        <v>0.42105263157894729</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+      <c r="E20">
+        <v>0.625</v>
+      </c>
+      <c r="F20">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>0.71052631578947367</v>
+      </c>
+      <c r="C21">
+        <v>0.28947368421052633</v>
+      </c>
+      <c r="D21">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="E21">
+        <v>0.6875</v>
+      </c>
+      <c r="F21">
+        <v>0.66666666666666674</v>
       </c>
     </row>
   </sheetData>
